--- a/data/trans_camb/P25_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_3-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,26</t>
+          <t>-4,31; 3,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,69</t>
+          <t>-3,94; 3,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 8,12</t>
+          <t>-1,04; 8,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 3,41</t>
+          <t>-7,04; 1,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,33</t>
+          <t>-7,32; 0,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 7,65</t>
+          <t>-4,27; 3,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 2,58</t>
+          <t>-3,77; 4,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,98</t>
+          <t>0,21; 9,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,43</t>
+          <t>-5,26; 3,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 4,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 2,35</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 3,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 7,35</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 1,35</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 1,73</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,98%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>-17,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>-3,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>-5,79%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-2,85%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>28,06%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-9,77%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-5,65%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 26,97</t>
+          <t>-27,0; 27,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 30,58</t>
+          <t>-24,88; 30,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 69,41</t>
+          <t>-6,68; 63,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 25,13</t>
+          <t>-34,17; 10,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 31,79</t>
+          <t>-36,43; 4,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 56,04</t>
+          <t>-24,04; 24,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 20,03</t>
+          <t>-20,82; 30,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 22,96</t>
+          <t>1,13; 65,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 48,85</t>
+          <t>-22,42; 19,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-16,57; 28,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-18,3; 17,31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-14,96; 21,84</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 54,19</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-24,78; 7,34</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-19,41; 10,5</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 5,1</t>
+          <t>-3,49; 6,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 5,56</t>
+          <t>-3,35; 6,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 7,96</t>
+          <t>1,0; 11,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,6</t>
+          <t>-5,13; 7,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 4,42</t>
+          <t>-2,74; 11,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 14,6</t>
+          <t>-2,95; 4,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,36</t>
+          <t>-3,18; 4,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,64</t>
+          <t>1,43; 10,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 9,41</t>
+          <t>-2,91; 11,08</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 10,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 4,28</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 4,44</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 10,25</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 6,78</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 8,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,6%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>50,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>20,5%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9,31%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>51,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16,2%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 43,97</t>
+          <t>-21,79; 57,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 48,22</t>
+          <t>-21,9; 62,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 63,99</t>
+          <t>3,61; 107,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 47,7</t>
+          <t>-22,99; 38,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 46,5</t>
+          <t>-14,14; 83,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 136,82</t>
+          <t>-21,21; 51,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 29,47</t>
+          <t>-22,61; 48,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 31,27</t>
+          <t>10,23; 108,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 78,21</t>
+          <t>-17,16; 69,76</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-29,05; 73,75</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-14,26; 39,75</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,66; 39,79</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,67; 92,44</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-12,66; 38,53</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-12,48; 51,21</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,67</t>
+          <t>-6,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,4</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -0,19</t>
+          <t>-13,49; 0,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 8,99</t>
+          <t>-6,57; 10,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-5,55; 13,16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 9,3</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 11,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-8,6; 8,18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 10,22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 11,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-9,61; 2,08</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,63; 7,24</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 2,63</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 7,77</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 10,42</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-58,22%</t>
+          <t>-53,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>31,29%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-24,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>11,35%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-21,49%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16,05%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>18,91%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,32; 1,78</t>
+          <t>-80,46; 8,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 104,02</t>
+          <t>-40,13; 133,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-35,85; 150,9</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-43,02; 94,56</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 116,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-42,46; 75,86</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-33,71; 99,98</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-42,33; 99,66</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-53,82; 20,51</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-29,24; 66,37</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-50,89; 25,85</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-24,97; 75,44</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-22,94; 100,03</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 1,45</t>
+          <t>-3,53; 2,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 3,39</t>
+          <t>-2,02; 3,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 7,23</t>
+          <t>1,73; 8,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,69</t>
+          <t>-5,39; 1,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,1</t>
+          <t>-4,65; 2,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 7,9</t>
+          <t>-2,45; 2,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,56</t>
+          <t>-1,66; 3,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,64</t>
+          <t>1,73; 8,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,62</t>
+          <t>-2,93; 4,29</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 4,76</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 1,62</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 2,73</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 7,21</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 1,92</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 2,31</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>-11,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>-7,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33,96%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>35,29%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
           <t>-3,28%</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>28,98%</t>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 11,8</t>
+          <t>-22,81; 19,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 27,7</t>
+          <t>-13,51; 30,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,88; 57,91</t>
+          <t>10,7; 68,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 21,65</t>
+          <t>-26,6; 8,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 24,25</t>
+          <t>-24,12; 14,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,48; 61,09</t>
+          <t>-15,68; 20,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 11,65</t>
+          <t>-10,92; 27,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 20,42</t>
+          <t>11,2; 63,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,87; 51,12</t>
+          <t>-13,84; 24,89</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-12,8; 28,23</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-14,31; 12,33</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 21,07</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 55,06</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 11,11</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-14,05; 13,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
